--- a/migratoryData.xlsx
+++ b/migratoryData.xlsx
@@ -444,10 +444,10 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>0.7005109010309396</v>
+        <v>0.7005109010309397</v>
       </c>
       <c r="E2">
-        <v>0.0005822953688416014</v>
+        <v>0.0005822953688415993</v>
       </c>
       <c r="F2">
         <v>-0.5450914134663705</v>
@@ -456,10 +456,10 @@
         <v>0.01293667042447874</v>
       </c>
       <c r="H2">
-        <v>0.1725555601452885</v>
+        <v>0.1725555601452886</v>
       </c>
       <c r="I2">
-        <v>0.4669272049518344</v>
+        <v>0.4669272049518347</v>
       </c>
     </row>
   </sheetData>

--- a/migratoryData.xlsx
+++ b/migratoryData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="197">
   <si>
     <t>species</t>
   </si>
@@ -40,10 +40,571 @@
     <t>temp p-value</t>
   </si>
   <si>
+    <t>Troglodytes aedon</t>
+  </si>
+  <si>
+    <t>Tringa melanoleuca</t>
+  </si>
+  <si>
+    <t>Calidris minutilla</t>
+  </si>
+  <si>
+    <t>Branta canadensis</t>
+  </si>
+  <si>
+    <t>Anas platyrhynchos</t>
+  </si>
+  <si>
+    <t>Sayornis nigricans</t>
+  </si>
+  <si>
+    <t>Elanus leucurus</t>
+  </si>
+  <si>
+    <t>Egretta thula</t>
+  </si>
+  <si>
+    <t>Columba livia</t>
+  </si>
+  <si>
+    <t>Hirundo rustica</t>
+  </si>
+  <si>
+    <t>Passer domesticus</t>
+  </si>
+  <si>
+    <t>Podilymbus podiceps</t>
+  </si>
+  <si>
+    <t>Phalaropus lobatus</t>
+  </si>
+  <si>
+    <t>Petrochelidon pyrrhonota</t>
+  </si>
+  <si>
+    <t>Calidris melanotos</t>
+  </si>
+  <si>
     <t>Pluvialis dominica</t>
   </si>
   <si>
+    <t>Bartramia longicauda</t>
+  </si>
+  <si>
+    <t>Thalassarche melanophris</t>
+  </si>
+  <si>
+    <t>Thalassarche chlororhynchos</t>
+  </si>
+  <si>
+    <t>Tyto alba</t>
+  </si>
+  <si>
+    <t>Arenaria interpres</t>
+  </si>
+  <si>
+    <t>Bubulcus ibis</t>
+  </si>
+  <si>
+    <t>Chlidonias leucopterus</t>
+  </si>
+  <si>
+    <t>Melopsittacus undulatus</t>
+  </si>
+  <si>
+    <t>Chordeiles minor</t>
+  </si>
+  <si>
+    <t>Calidris alpina</t>
+  </si>
+  <si>
+    <t>Charadrius semipalmatus</t>
+  </si>
+  <si>
+    <t>Paroaria coronata</t>
+  </si>
+  <si>
+    <t>Phasianus colchicus</t>
+  </si>
+  <si>
+    <t>Progne subis</t>
+  </si>
+  <si>
+    <t>Piranga flava</t>
+  </si>
+  <si>
+    <t>Puffinus puffinus</t>
+  </si>
+  <si>
+    <t>Parabuteo unicinctus</t>
+  </si>
+  <si>
+    <t>Calidris canutus</t>
+  </si>
+  <si>
+    <t>Sterna hirundo</t>
+  </si>
+  <si>
+    <t>Streptopelia decaocto</t>
+  </si>
+  <si>
+    <t>Riparia riparia</t>
+  </si>
+  <si>
+    <t>Stercorarius parasiticus</t>
+  </si>
+  <si>
+    <t>Pitangus sulphuratus</t>
+  </si>
+  <si>
+    <t>Meleagris gallopavo</t>
+  </si>
+  <si>
+    <t>Patagioenas fasciata</t>
+  </si>
+  <si>
+    <t>Limosa haemastica</t>
+  </si>
+  <si>
+    <t>Calidris alba</t>
+  </si>
+  <si>
+    <t>Catharus ustulatus</t>
+  </si>
+  <si>
+    <t>Chlidonias niger</t>
+  </si>
+  <si>
+    <t>Pandion haliaetus</t>
+  </si>
+  <si>
+    <t>Numenius arquata</t>
+  </si>
+  <si>
+    <t>Xenus cinereus</t>
+  </si>
+  <si>
+    <t>Pluvialis squatarola</t>
+  </si>
+  <si>
+    <t>Tringa flavipes</t>
+  </si>
+  <si>
+    <t>Platalea ajaja</t>
+  </si>
+  <si>
+    <t>Pyrocephalus rubinus</t>
+  </si>
+  <si>
+    <t>Lophura nycthemera</t>
+  </si>
+  <si>
+    <t>Gelochelidon nilotica</t>
+  </si>
+  <si>
+    <t>Ardea alba</t>
+  </si>
+  <si>
+    <t>Ictinia mississippiensis</t>
+  </si>
+  <si>
+    <t>Sternula antillarum</t>
+  </si>
+  <si>
+    <t>Elaenia parvirostris</t>
+  </si>
+  <si>
+    <t>Anas bahamensis</t>
+  </si>
+  <si>
+    <t>Numenius phaeopus</t>
+  </si>
+  <si>
+    <t>Stercorarius longicaudus</t>
+  </si>
+  <si>
+    <t>Limnodromus griseus</t>
+  </si>
+  <si>
+    <t>Carduelis carduelis</t>
+  </si>
+  <si>
+    <t>Tringa solitaria</t>
+  </si>
+  <si>
+    <t>Oceanites oceanicus</t>
+  </si>
+  <si>
+    <t>Numida meleagris</t>
+  </si>
+  <si>
+    <t>Coragyps atratus</t>
+  </si>
+  <si>
+    <t>Asio flammeus</t>
+  </si>
+  <si>
+    <t>Setophaga striata</t>
+  </si>
+  <si>
+    <t>Falco peregrinus</t>
+  </si>
+  <si>
+    <t>Thalasseus sandvicensis</t>
+  </si>
+  <si>
+    <t>Tyrannus melancholicus</t>
+  </si>
+  <si>
+    <t>Accipiter striatus</t>
+  </si>
+  <si>
+    <t>Sturnus vulgaris</t>
+  </si>
+  <si>
+    <t>Dendrocygna autumnalis</t>
+  </si>
+  <si>
+    <t>Bubo virginianus</t>
+  </si>
+  <si>
+    <t>Cairina moschata</t>
+  </si>
+  <si>
+    <t>Pavo cristatus</t>
+  </si>
+  <si>
+    <t>Ixobrychus exilis</t>
+  </si>
+  <si>
+    <t>Buteo platypterus</t>
+  </si>
+  <si>
+    <t>Calidris himantopus</t>
+  </si>
+  <si>
+    <t>Empidonomus varius</t>
+  </si>
+  <si>
+    <t>Empidonax alnorum</t>
+  </si>
+  <si>
+    <t>Psittacula krameri</t>
+  </si>
+  <si>
+    <t>Cathartes aura</t>
+  </si>
+  <si>
+    <t>Myiopsitta monachus</t>
+  </si>
+  <si>
+    <t>Falco sparverius</t>
+  </si>
+  <si>
+    <t>Nycticorax nycticorax</t>
+  </si>
+  <si>
+    <t>Chloris chloris</t>
+  </si>
+  <si>
+    <t>Egretta caerulea</t>
+  </si>
+  <si>
+    <t>Anhinga anhinga</t>
+  </si>
+  <si>
+    <t>Tyrannus savana</t>
+  </si>
+  <si>
+    <t>Sterna paradisaea</t>
+  </si>
+  <si>
+    <t>Stercorarius pomarinus</t>
+  </si>
+  <si>
+    <t>Calidris ferruginea</t>
+  </si>
+  <si>
+    <t>Calidris bairdii</t>
+  </si>
+  <si>
+    <t>Tadorna ferruginea</t>
+  </si>
+  <si>
+    <t>Xema sabini</t>
+  </si>
+  <si>
+    <t>Phoenicopterus chilensis</t>
+  </si>
+  <si>
+    <t>Phalaropus fulicarius</t>
+  </si>
+  <si>
+    <t>Calidris fuscicollis</t>
+  </si>
+  <si>
+    <t>Leucophaeus atricilla</t>
+  </si>
+  <si>
+    <t>Phalaropus tricolor</t>
+  </si>
+  <si>
+    <t>Actitis macularius</t>
+  </si>
+  <si>
+    <t>Serinus canaria</t>
+  </si>
+  <si>
+    <t>Calidris pusilla</t>
+  </si>
+  <si>
+    <t>Calonectris diomedea</t>
+  </si>
+  <si>
+    <t>Contopus virens</t>
+  </si>
+  <si>
+    <t>Mycteria americana</t>
+  </si>
+  <si>
+    <t>Porphyrio martinica</t>
+  </si>
+  <si>
+    <t>Thalasseus maximus</t>
+  </si>
+  <si>
+    <t>Piranga olivacea</t>
+  </si>
+  <si>
+    <t>Callipepla californica</t>
+  </si>
+  <si>
+    <t>Tringa semipalmata</t>
+  </si>
+  <si>
+    <t>Catharus fuscescens</t>
+  </si>
+  <si>
+    <t>Coccyzus americanus</t>
+  </si>
+  <si>
+    <t>Dolichonyx oryzivorus</t>
+  </si>
+  <si>
+    <t>Nyctanassa violacea</t>
+  </si>
+  <si>
+    <t>Himantopus mexicanus</t>
+  </si>
+  <si>
+    <t>Leucophaeus pipixcan</t>
+  </si>
+  <si>
+    <t>Tyrannus tyrannus</t>
+  </si>
+  <si>
+    <t>Elanoides forficatus</t>
+  </si>
+  <si>
+    <t>Haematopus palliatus</t>
+  </si>
+  <si>
+    <t>Fregata magnificens</t>
+  </si>
+  <si>
+    <t>Caracara plancus</t>
+  </si>
+  <si>
+    <t>Streptoprocne zonaris</t>
+  </si>
+  <si>
+    <t>Molothrus bonariensis</t>
+  </si>
+  <si>
+    <t>Rynchops niger</t>
+  </si>
+  <si>
+    <t>Euplectes orix</t>
+  </si>
+  <si>
+    <t>Larus dominicanus</t>
+  </si>
+  <si>
+    <t>Chordeiles acutipennis</t>
+  </si>
+  <si>
+    <t>Athene cunicularia</t>
+  </si>
+  <si>
+    <t>Estrilda astrild</t>
+  </si>
+  <si>
+    <t>Buteo swainsoni</t>
+  </si>
+  <si>
+    <t>Acridotheres cristatellus</t>
+  </si>
+  <si>
+    <t>Plegadis chihi</t>
+  </si>
+  <si>
+    <t>Tringa incana</t>
+  </si>
+  <si>
+    <t>Stercorarius maccormicki</t>
+  </si>
+  <si>
+    <t>Dendrocygna bicolor</t>
+  </si>
+  <si>
+    <t>Buteo albonotatus</t>
+  </si>
+  <si>
+    <t>Agapornis roseicollis</t>
+  </si>
+  <si>
+    <t>Callonetta leucophrys</t>
+  </si>
+  <si>
+    <t>Pyrrhura molinae</t>
+  </si>
+  <si>
+    <t>Numenius borealis</t>
+  </si>
+  <si>
+    <t>Troglodytidae</t>
+  </si>
+  <si>
+    <t>Scolopacidae</t>
+  </si>
+  <si>
+    <t>Anatidae</t>
+  </si>
+  <si>
+    <t>Tyrannidae</t>
+  </si>
+  <si>
+    <t>Accipitridae</t>
+  </si>
+  <si>
+    <t>Ardeidae</t>
+  </si>
+  <si>
+    <t>Columbidae</t>
+  </si>
+  <si>
+    <t>Hirundinidae</t>
+  </si>
+  <si>
+    <t>Passeridae</t>
+  </si>
+  <si>
+    <t>Podicipedidae</t>
+  </si>
+  <si>
     <t>Charadriidae</t>
+  </si>
+  <si>
+    <t>Diomedeidae</t>
+  </si>
+  <si>
+    <t>Tytonidae</t>
+  </si>
+  <si>
+    <t>Laridae</t>
+  </si>
+  <si>
+    <t>Psittacidae</t>
+  </si>
+  <si>
+    <t>Caprimulgidae</t>
+  </si>
+  <si>
+    <t>Thraupidae</t>
+  </si>
+  <si>
+    <t>Phasianidae</t>
+  </si>
+  <si>
+    <t>Cardinalidae</t>
+  </si>
+  <si>
+    <t>Procellariidae</t>
+  </si>
+  <si>
+    <t>Stercorariidae</t>
+  </si>
+  <si>
+    <t>Turdidae</t>
+  </si>
+  <si>
+    <t>Pandionidae</t>
+  </si>
+  <si>
+    <t>Threskiornithidae</t>
+  </si>
+  <si>
+    <t>Fringillidae</t>
+  </si>
+  <si>
+    <t>Hydrobatidae</t>
+  </si>
+  <si>
+    <t>Numididae</t>
+  </si>
+  <si>
+    <t>Cathartidae</t>
+  </si>
+  <si>
+    <t>Strigidae</t>
+  </si>
+  <si>
+    <t>Parulidae</t>
+  </si>
+  <si>
+    <t>Falconidae</t>
+  </si>
+  <si>
+    <t>Sturnidae</t>
+  </si>
+  <si>
+    <t>Anhingidae</t>
+  </si>
+  <si>
+    <t>Phoenicopteridae</t>
+  </si>
+  <si>
+    <t>Ciconiidae</t>
+  </si>
+  <si>
+    <t>Rallidae</t>
+  </si>
+  <si>
+    <t>Odontophoridae</t>
+  </si>
+  <si>
+    <t>Cuculidae</t>
+  </si>
+  <si>
+    <t>Icteridae</t>
+  </si>
+  <si>
+    <t>Recurvirostridae</t>
+  </si>
+  <si>
+    <t>Haematopodidae</t>
+  </si>
+  <si>
+    <t>Fregatidae</t>
+  </si>
+  <si>
+    <t>Apodidae</t>
+  </si>
+  <si>
+    <t>Ploceidae</t>
+  </si>
+  <si>
+    <t>Estrildidae</t>
   </si>
 </sst>
 </file>
@@ -401,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,25 +1002,3434 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2">
+        <v>-0.2171287330448941</v>
+      </c>
+      <c r="E2">
+        <v>0.3578118126156548</v>
+      </c>
+      <c r="F2">
+        <v>-0.1617062042970737</v>
+      </c>
+      <c r="G2">
+        <v>0.4958008154696776</v>
+      </c>
+      <c r="H2">
+        <v>0.1679874920972676</v>
+      </c>
+      <c r="I2">
+        <v>0.4789791610379655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>0.7005109010309397</v>
-      </c>
-      <c r="E2">
-        <v>0.0005822953688415993</v>
-      </c>
-      <c r="F2">
-        <v>-0.5450914134663705</v>
-      </c>
-      <c r="G2">
-        <v>0.01293667042447874</v>
-      </c>
-      <c r="H2">
-        <v>0.1725555601452886</v>
-      </c>
-      <c r="I2">
-        <v>0.4669272049518347</v>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3">
+        <v>0.05583581139583628</v>
+      </c>
+      <c r="E3">
+        <v>0.8151334174881107</v>
+      </c>
+      <c r="F3">
+        <v>-0.2385025860980801</v>
+      </c>
+      <c r="G3">
+        <v>0.3112284300351411</v>
+      </c>
+      <c r="H3">
+        <v>-0.1024143014612758</v>
+      </c>
+      <c r="I3">
+        <v>0.667448451959424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4">
+        <v>-0.36402674546216</v>
+      </c>
+      <c r="E4">
+        <v>0.1145999813935266</v>
+      </c>
+      <c r="F4">
+        <v>0.04353492809697776</v>
+      </c>
+      <c r="G4">
+        <v>0.8553915770799616</v>
+      </c>
+      <c r="H4">
+        <v>0.1209166046241809</v>
+      </c>
+      <c r="I4">
+        <v>0.6115890861297744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5">
+        <v>0.2969500558443151</v>
+      </c>
+      <c r="E5">
+        <v>0.2035844629745683</v>
+      </c>
+      <c r="F5">
+        <v>-0.3810567769029182</v>
+      </c>
+      <c r="G5">
+        <v>0.09739046910378038</v>
+      </c>
+      <c r="H5">
+        <v>0.3595192933786258</v>
+      </c>
+      <c r="I5">
+        <v>0.1194991821644982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8">
+        <v>0.3687814532213419</v>
+      </c>
+      <c r="E8">
+        <v>0.1095902742420417</v>
+      </c>
+      <c r="F8">
+        <v>-0.3575390035427906</v>
+      </c>
+      <c r="G8">
+        <v>0.1216982811912099</v>
+      </c>
+      <c r="H8">
+        <v>0.5340819032715212</v>
+      </c>
+      <c r="I8">
+        <v>0.01528072089021739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9">
+        <v>-0.2935700537410297</v>
+      </c>
+      <c r="E9">
+        <v>0.2090238832361416</v>
+      </c>
+      <c r="F9">
+        <v>0.01849031811690418</v>
+      </c>
+      <c r="G9">
+        <v>0.9383268581970011</v>
+      </c>
+      <c r="H9">
+        <v>-0.2813623928069063</v>
+      </c>
+      <c r="I9">
+        <v>0.2294658500213101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10">
+        <v>-0.3819318557049632</v>
+      </c>
+      <c r="E10">
+        <v>0.09656035567483229</v>
+      </c>
+      <c r="F10">
+        <v>-0.02021059496421786</v>
+      </c>
+      <c r="G10">
+        <v>0.9326009570324798</v>
+      </c>
+      <c r="H10">
+        <v>0.09008464982984969</v>
+      </c>
+      <c r="I10">
+        <v>0.705653735035723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11">
+        <v>-0.2698700064637422</v>
+      </c>
+      <c r="E11">
+        <v>0.2498585176957525</v>
+      </c>
+      <c r="F11">
+        <v>0.2821862696596457</v>
+      </c>
+      <c r="G11">
+        <v>0.2280468257505877</v>
+      </c>
+      <c r="H11">
+        <v>0.04301638648612472</v>
+      </c>
+      <c r="I11">
+        <v>0.8570969456743064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12">
+        <v>-0.3817712755349381</v>
+      </c>
+      <c r="E12">
+        <v>0.09671229591605671</v>
+      </c>
+      <c r="F12">
+        <v>0.1808540221350043</v>
+      </c>
+      <c r="G12">
+        <v>0.4454331313752425</v>
+      </c>
+      <c r="H12">
+        <v>0.2181709765537307</v>
+      </c>
+      <c r="I12">
+        <v>0.3554518487854327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13">
+        <v>0.2759411897200361</v>
+      </c>
+      <c r="E13">
+        <v>0.2389461669103429</v>
+      </c>
+      <c r="F13">
+        <v>-0.5552660873370325</v>
+      </c>
+      <c r="G13">
+        <v>0.01103707901031162</v>
+      </c>
+      <c r="H13">
+        <v>0.2796222432000168</v>
+      </c>
+      <c r="I13">
+        <v>0.2324818658160807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15">
+        <v>-0.0833408882388639</v>
+      </c>
+      <c r="E15">
+        <v>0.726847842515858</v>
+      </c>
+      <c r="F15">
+        <v>0.182782055825856</v>
+      </c>
+      <c r="G15">
+        <v>0.440514257420408</v>
+      </c>
+      <c r="H15">
+        <v>-0.001553065959945553</v>
+      </c>
+      <c r="I15">
+        <v>0.9948151685209397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16">
+        <v>0.4998526076900169</v>
+      </c>
+      <c r="E16">
+        <v>0.02481885959138169</v>
+      </c>
+      <c r="F16">
+        <v>-0.3792654183313063</v>
+      </c>
+      <c r="G16">
+        <v>0.09910600749399109</v>
+      </c>
+      <c r="H16">
+        <v>0.2780564014596185</v>
+      </c>
+      <c r="I16">
+        <v>0.2352176365605718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17">
+        <v>0.6802164478174348</v>
+      </c>
+      <c r="E17">
+        <v>0.0009662243723884183</v>
+      </c>
+      <c r="F17">
+        <v>-0.4186416338081344</v>
+      </c>
+      <c r="G17">
+        <v>0.06619423875319423</v>
+      </c>
+      <c r="H17">
+        <v>0.1906670566100384</v>
+      </c>
+      <c r="I17">
+        <v>0.4206971270097513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18">
+        <v>0.4330837001925247</v>
+      </c>
+      <c r="E18">
+        <v>0.05646498052342191</v>
+      </c>
+      <c r="F18">
+        <v>-0.4170704425079281</v>
+      </c>
+      <c r="G18">
+        <v>0.0673242390977974</v>
+      </c>
+      <c r="H18">
+        <v>-0.2631789204145261</v>
+      </c>
+      <c r="I18">
+        <v>0.2622475922678519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19">
+        <v>-0.5422262091186363</v>
+      </c>
+      <c r="E19">
+        <v>0.01351669643493346</v>
+      </c>
+      <c r="F19">
+        <v>0.130383371761422</v>
+      </c>
+      <c r="G19">
+        <v>0.583763884481086</v>
+      </c>
+      <c r="H19">
+        <v>0.005050987931192977</v>
+      </c>
+      <c r="I19">
+        <v>0.983138573157743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20">
+        <v>-0.2290009815349099</v>
+      </c>
+      <c r="E20">
+        <v>0.3314640900339644</v>
+      </c>
+      <c r="F20">
+        <v>0.01886080722540337</v>
+      </c>
+      <c r="G20">
+        <v>0.9370934382777315</v>
+      </c>
+      <c r="H20">
+        <v>0.01055677363056423</v>
+      </c>
+      <c r="I20">
+        <v>0.9647669945768429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21">
+        <v>-0.2019333788223313</v>
+      </c>
+      <c r="E21">
+        <v>0.3932317737871476</v>
+      </c>
+      <c r="F21">
+        <v>0.2742539505185477</v>
+      </c>
+      <c r="G21">
+        <v>0.2419474579702026</v>
+      </c>
+      <c r="H21">
+        <v>0.3538351976809843</v>
+      </c>
+      <c r="I21">
+        <v>0.1258886354920436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22">
+        <v>0.08156225081104448</v>
+      </c>
+      <c r="E22">
+        <v>0.7324703999439643</v>
+      </c>
+      <c r="F22">
+        <v>0.1826276462935626</v>
+      </c>
+      <c r="G22">
+        <v>0.440907141142888</v>
+      </c>
+      <c r="H22">
+        <v>-0.05318204695636936</v>
+      </c>
+      <c r="I22">
+        <v>0.8237844808786275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23">
+        <v>-0.615127249699459</v>
+      </c>
+      <c r="E23">
+        <v>0.003893633627154812</v>
+      </c>
+      <c r="F23">
+        <v>0.3703424330508917</v>
+      </c>
+      <c r="G23">
+        <v>0.1079805976391634</v>
+      </c>
+      <c r="H23">
+        <v>-0.1174359534401345</v>
+      </c>
+      <c r="I23">
+        <v>0.621952555973913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24">
+        <v>-0.3310699904476121</v>
+      </c>
+      <c r="E24">
+        <v>0.1539154307523193</v>
+      </c>
+      <c r="F24">
+        <v>0.1772257124638905</v>
+      </c>
+      <c r="G24">
+        <v>0.4547668398986788</v>
+      </c>
+      <c r="H24">
+        <v>-0.2324335903831462</v>
+      </c>
+      <c r="I24">
+        <v>0.3240659034009196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25">
+        <v>-0.3791363946055091</v>
+      </c>
+      <c r="E25">
+        <v>0.09923041482937879</v>
+      </c>
+      <c r="F25">
+        <v>0.2024030470613693</v>
+      </c>
+      <c r="G25">
+        <v>0.3921088473422173</v>
+      </c>
+      <c r="H25">
+        <v>-0.1853493779596134</v>
+      </c>
+      <c r="I25">
+        <v>0.4340088454850483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26">
+        <v>-0.5979063193417589</v>
+      </c>
+      <c r="E26">
+        <v>0.005362782149720901</v>
+      </c>
+      <c r="F26">
+        <v>0.296059165808634</v>
+      </c>
+      <c r="G26">
+        <v>0.205008936213922</v>
+      </c>
+      <c r="H26">
+        <v>-0.3475321954480127</v>
+      </c>
+      <c r="I26">
+        <v>0.1332538831047184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27">
+        <v>0.2200832713545025</v>
+      </c>
+      <c r="E27">
+        <v>0.3511452272539917</v>
+      </c>
+      <c r="F27">
+        <v>-0.3902799491605502</v>
+      </c>
+      <c r="G27">
+        <v>0.08889930650336726</v>
+      </c>
+      <c r="H27">
+        <v>-0.1691220893237656</v>
+      </c>
+      <c r="I27">
+        <v>0.4759713485867552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28">
+        <v>0.2416621054718964</v>
+      </c>
+      <c r="E28">
+        <v>0.3046684186914421</v>
+      </c>
+      <c r="F28">
+        <v>-0.4421714118163413</v>
+      </c>
+      <c r="G28">
+        <v>0.05092594766428114</v>
+      </c>
+      <c r="H28">
+        <v>-0.1923808633650897</v>
+      </c>
+      <c r="I28">
+        <v>0.4164541718296043</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29">
+        <v>-0.5816900297779855</v>
+      </c>
+      <c r="E29">
+        <v>0.007136849665448256</v>
+      </c>
+      <c r="F29">
+        <v>0.4627754935793332</v>
+      </c>
+      <c r="G29">
+        <v>0.03991029920635945</v>
+      </c>
+      <c r="H29">
+        <v>0.1131461212181436</v>
+      </c>
+      <c r="I29">
+        <v>0.6348200085460162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31">
+        <v>0.02485143620666458</v>
+      </c>
+      <c r="E31">
+        <v>0.9171706750692457</v>
+      </c>
+      <c r="F31">
+        <v>-0.01460410208802715</v>
+      </c>
+      <c r="G31">
+        <v>0.9512723536073755</v>
+      </c>
+      <c r="H31">
+        <v>0.01591197396783452</v>
+      </c>
+      <c r="I31">
+        <v>0.9469141923555211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32">
+        <v>-0.8539018030589329</v>
+      </c>
+      <c r="E32">
+        <v>1.673771207601059E-06</v>
+      </c>
+      <c r="F32">
+        <v>0.4855807155994104</v>
+      </c>
+      <c r="G32">
+        <v>0.02997262311240621</v>
+      </c>
+      <c r="H32">
+        <v>-0.01355209033343159</v>
+      </c>
+      <c r="I32">
+        <v>0.9547788964539541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33">
+        <v>-0.3163905036372605</v>
+      </c>
+      <c r="E33">
+        <v>0.1741297248005193</v>
+      </c>
+      <c r="F33">
+        <v>0.2927560863724316</v>
+      </c>
+      <c r="G33">
+        <v>0.2103480259734105</v>
+      </c>
+      <c r="H33">
+        <v>-0.317824362320259</v>
+      </c>
+      <c r="I33">
+        <v>0.1720793042178003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34">
+        <v>-0.8359637973950585</v>
+      </c>
+      <c r="E34">
+        <v>4.429738373924508E-06</v>
+      </c>
+      <c r="F34">
+        <v>0.3891303374042913</v>
+      </c>
+      <c r="G34">
+        <v>0.08992684573450874</v>
+      </c>
+      <c r="H34">
+        <v>-0.2733280328950247</v>
+      </c>
+      <c r="I34">
+        <v>0.2436047474155778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35">
+        <v>0.07840595149946238</v>
+      </c>
+      <c r="E35">
+        <v>0.742480182280488</v>
+      </c>
+      <c r="F35">
+        <v>-0.2893618622047248</v>
+      </c>
+      <c r="G35">
+        <v>0.2159293682695534</v>
+      </c>
+      <c r="H35">
+        <v>-0.1315494608161096</v>
+      </c>
+      <c r="I35">
+        <v>0.5803741232746779</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36">
+        <v>-0.0595751904765009</v>
+      </c>
+      <c r="E36">
+        <v>0.8029784301568512</v>
+      </c>
+      <c r="F36">
+        <v>0.3462983680810899</v>
+      </c>
+      <c r="G36">
+        <v>0.1347305441264369</v>
+      </c>
+      <c r="H36">
+        <v>0.2059401188723526</v>
+      </c>
+      <c r="I36">
+        <v>0.3837093659703808</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38">
+        <v>0.05962597425875572</v>
+      </c>
+      <c r="E38">
+        <v>0.802813648487409</v>
+      </c>
+      <c r="F38">
+        <v>-0.08271094009766472</v>
+      </c>
+      <c r="G38">
+        <v>0.7288376887545505</v>
+      </c>
+      <c r="H38">
+        <v>-0.1893333438790557</v>
+      </c>
+      <c r="I38">
+        <v>0.4240150411869659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39">
+        <v>-0.358400894834584</v>
+      </c>
+      <c r="E39">
+        <v>0.1207376328972751</v>
+      </c>
+      <c r="F39">
+        <v>-0.0001140756860865421</v>
+      </c>
+      <c r="G39">
+        <v>0.9996191617051295</v>
+      </c>
+      <c r="H39">
+        <v>0.1233240228663612</v>
+      </c>
+      <c r="I39">
+        <v>0.6044623096800956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40">
+        <v>-0.514008558266299</v>
+      </c>
+      <c r="E40">
+        <v>0.02042549798830176</v>
+      </c>
+      <c r="F40">
+        <v>0.2658805372134666</v>
+      </c>
+      <c r="G40">
+        <v>0.2571995295796325</v>
+      </c>
+      <c r="H40">
+        <v>-0.07462626868901753</v>
+      </c>
+      <c r="I40">
+        <v>0.7545193906768097</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43">
+        <v>0.5807361062076194</v>
+      </c>
+      <c r="E43">
+        <v>0.007254591742054724</v>
+      </c>
+      <c r="F43">
+        <v>-0.4005708104073137</v>
+      </c>
+      <c r="G43">
+        <v>0.08008253780239015</v>
+      </c>
+      <c r="H43">
+        <v>0.06112891911043534</v>
+      </c>
+      <c r="I43">
+        <v>0.7979405939052523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44">
+        <v>0.4181181024329701</v>
+      </c>
+      <c r="E44">
+        <v>0.06656916543919264</v>
+      </c>
+      <c r="F44">
+        <v>-0.01149708333556333</v>
+      </c>
+      <c r="G44">
+        <v>0.9616308525889097</v>
+      </c>
+      <c r="H44">
+        <v>0.03341679609649056</v>
+      </c>
+      <c r="I44">
+        <v>0.8887704440657792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45">
+        <v>-0.2635086426677881</v>
+      </c>
+      <c r="E45">
+        <v>0.2616281696654587</v>
+      </c>
+      <c r="F45">
+        <v>0.2825770894325586</v>
+      </c>
+      <c r="G45">
+        <v>0.2273756895645586</v>
+      </c>
+      <c r="H45">
+        <v>-0.5521089057518673</v>
+      </c>
+      <c r="I45">
+        <v>0.01160057456219396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47">
+        <v>0.1103374994097759</v>
+      </c>
+      <c r="E47">
+        <v>0.6432997804791051</v>
+      </c>
+      <c r="F47">
+        <v>-0.5458338322400341</v>
+      </c>
+      <c r="G47">
+        <v>0.01278970253275355</v>
+      </c>
+      <c r="H47">
+        <v>0.03111916735338641</v>
+      </c>
+      <c r="I47">
+        <v>0.8963773215721571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50">
+        <v>0.4323063266775913</v>
+      </c>
+      <c r="E50">
+        <v>0.0569592235599858</v>
+      </c>
+      <c r="F50">
+        <v>-0.180283785105236</v>
+      </c>
+      <c r="G50">
+        <v>0.4468934013184563</v>
+      </c>
+      <c r="H50">
+        <v>-0.1188197236144121</v>
+      </c>
+      <c r="I50">
+        <v>0.6178240986314343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51">
+        <v>0.5987647804918979</v>
+      </c>
+      <c r="E51">
+        <v>0.005280079146068639</v>
+      </c>
+      <c r="F51">
+        <v>-0.5540733236383043</v>
+      </c>
+      <c r="G51">
+        <v>0.01124729612154378</v>
+      </c>
+      <c r="H51">
+        <v>-0.03317563047824489</v>
+      </c>
+      <c r="I51">
+        <v>0.889568455243944</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52">
+        <v>0.1267508355137516</v>
+      </c>
+      <c r="E52">
+        <v>0.5943770569730253</v>
+      </c>
+      <c r="F52">
+        <v>0.1805028048734925</v>
+      </c>
+      <c r="G52">
+        <v>0.4463322386945637</v>
+      </c>
+      <c r="H52">
+        <v>0.2913219103326264</v>
+      </c>
+      <c r="I52">
+        <v>0.2126945762230639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53">
+        <v>-0.01562944180170288</v>
+      </c>
+      <c r="E53">
+        <v>0.9478555424729032</v>
+      </c>
+      <c r="F53">
+        <v>-0.3314760809452051</v>
+      </c>
+      <c r="G53">
+        <v>0.1533804992554271</v>
+      </c>
+      <c r="H53">
+        <v>0.1367253641933023</v>
+      </c>
+      <c r="I53">
+        <v>0.5654308740074979</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55">
+        <v>0.0556029177854931</v>
+      </c>
+      <c r="E55">
+        <v>0.8158918233242625</v>
+      </c>
+      <c r="F55">
+        <v>-0.242957197108612</v>
+      </c>
+      <c r="G55">
+        <v>0.3020038870161526</v>
+      </c>
+      <c r="H55">
+        <v>0.1682168935814213</v>
+      </c>
+      <c r="I55">
+        <v>0.4783702549705206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56">
+        <v>-0.3719095338900824</v>
+      </c>
+      <c r="E56">
+        <v>0.1063818732602808</v>
+      </c>
+      <c r="F56">
+        <v>0.02695075275057434</v>
+      </c>
+      <c r="G56">
+        <v>0.9101997150922972</v>
+      </c>
+      <c r="H56">
+        <v>-0.4820722373984667</v>
+      </c>
+      <c r="I56">
+        <v>0.0313597375726364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57">
+        <v>-0.4745022207923554</v>
+      </c>
+      <c r="E57">
+        <v>0.03452372337402582</v>
+      </c>
+      <c r="F57">
+        <v>0.2444886331519897</v>
+      </c>
+      <c r="G57">
+        <v>0.2988714457307698</v>
+      </c>
+      <c r="H57">
+        <v>-0.178552126376153</v>
+      </c>
+      <c r="I57">
+        <v>0.4513430664054037</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59">
+        <v>0.09477977043748409</v>
+      </c>
+      <c r="E59">
+        <v>0.691019258370313</v>
+      </c>
+      <c r="F59">
+        <v>0.3172183573408967</v>
+      </c>
+      <c r="G59">
+        <v>0.1729438691676446</v>
+      </c>
+      <c r="H59">
+        <v>0.3482546272478516</v>
+      </c>
+      <c r="I59">
+        <v>0.1323945972541392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60">
+        <v>-0.05143693227079633</v>
+      </c>
+      <c r="E60">
+        <v>0.8294841652996648</v>
+      </c>
+      <c r="F60">
+        <v>-0.2653877223525655</v>
+      </c>
+      <c r="G60">
+        <v>0.2581157429767399</v>
+      </c>
+      <c r="H60">
+        <v>-0.2503216339818207</v>
+      </c>
+      <c r="I60">
+        <v>0.287122770743557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61">
+        <v>-0.3257471734870373</v>
+      </c>
+      <c r="E61">
+        <v>0.161047079095581</v>
+      </c>
+      <c r="F61">
+        <v>0.09951583398418351</v>
+      </c>
+      <c r="G61">
+        <v>0.6763633158379696</v>
+      </c>
+      <c r="H61">
+        <v>-0.1424990528149</v>
+      </c>
+      <c r="I61">
+        <v>0.5489642544499097</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64">
+        <v>-0.5572872883170013</v>
+      </c>
+      <c r="E64">
+        <v>0.01068813276044773</v>
+      </c>
+      <c r="F64">
+        <v>0.5170443143196372</v>
+      </c>
+      <c r="G64">
+        <v>0.01956945023620018</v>
+      </c>
+      <c r="H64">
+        <v>-0.2882560641285364</v>
+      </c>
+      <c r="I64">
+        <v>0.217768539023409</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65">
+        <v>0.02786952491891883</v>
+      </c>
+      <c r="E65">
+        <v>0.9071508106898504</v>
+      </c>
+      <c r="F65">
+        <v>-0.2388970609576176</v>
+      </c>
+      <c r="G65">
+        <v>0.3104047796421316</v>
+      </c>
+      <c r="H65">
+        <v>-0.3408079332021404</v>
+      </c>
+      <c r="I65">
+        <v>0.1414417148379306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68">
+        <v>-0.5296666765553116</v>
+      </c>
+      <c r="E68">
+        <v>0.01631163174241755</v>
+      </c>
+      <c r="F68">
+        <v>0.2562261365007015</v>
+      </c>
+      <c r="G68">
+        <v>0.2755246118151588</v>
+      </c>
+      <c r="H68">
+        <v>-0.1110433173262016</v>
+      </c>
+      <c r="I68">
+        <v>0.6411647303417104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69">
+        <v>0.2449966561361736</v>
+      </c>
+      <c r="E69">
+        <v>0.2978367154763951</v>
+      </c>
+      <c r="F69">
+        <v>-0.4772257324118503</v>
+      </c>
+      <c r="G69">
+        <v>0.03335796617359289</v>
+      </c>
+      <c r="H69">
+        <v>0.3594737604255211</v>
+      </c>
+      <c r="I69">
+        <v>0.1195494245311023</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71">
+        <v>-0.192385080213213</v>
+      </c>
+      <c r="E71">
+        <v>0.4164437605200879</v>
+      </c>
+      <c r="F71">
+        <v>0.1680974327003578</v>
+      </c>
+      <c r="G71">
+        <v>0.4786872947150758</v>
+      </c>
+      <c r="H71">
+        <v>-0.1282145042109751</v>
+      </c>
+      <c r="I71">
+        <v>0.5900909665035785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72">
+        <v>-0.578714533127815</v>
+      </c>
+      <c r="E72">
+        <v>0.007509372294829875</v>
+      </c>
+      <c r="F72">
+        <v>0.3329148805194302</v>
+      </c>
+      <c r="G72">
+        <v>0.1514956057721942</v>
+      </c>
+      <c r="H72">
+        <v>0.189783515500618</v>
+      </c>
+      <c r="I72">
+        <v>0.4228935766912839</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73">
+        <v>-0.636295047434934</v>
+      </c>
+      <c r="E73">
+        <v>0.002560328452169842</v>
+      </c>
+      <c r="F73">
+        <v>0.2216251608968108</v>
+      </c>
+      <c r="G73">
+        <v>0.347694895502652</v>
+      </c>
+      <c r="H73">
+        <v>-0.2742427163480181</v>
+      </c>
+      <c r="I73">
+        <v>0.2419675223378976</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74">
+        <v>-0.5149133871491176</v>
+      </c>
+      <c r="E74">
+        <v>0.02016728794200954</v>
+      </c>
+      <c r="F74">
+        <v>0.4740324447419303</v>
+      </c>
+      <c r="G74">
+        <v>0.03472797631067272</v>
+      </c>
+      <c r="H74">
+        <v>-0.288633790055088</v>
+      </c>
+      <c r="I74">
+        <v>0.2171391496902143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75">
+        <v>-0.1166517208122697</v>
+      </c>
+      <c r="E75">
+        <v>0.6242971473958071</v>
+      </c>
+      <c r="F75">
+        <v>-0.2942994143828998</v>
+      </c>
+      <c r="G75">
+        <v>0.2078420732253804</v>
+      </c>
+      <c r="H75">
+        <v>-0.1171336887798819</v>
+      </c>
+      <c r="I75">
+        <v>0.6228558119355541</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76">
+        <v>-0.1836028521007044</v>
+      </c>
+      <c r="E76">
+        <v>0.4384288838227889</v>
+      </c>
+      <c r="F76">
+        <v>-0.01510999254372638</v>
+      </c>
+      <c r="G76">
+        <v>0.9495864336021698</v>
+      </c>
+      <c r="H76">
+        <v>-0.2316963135543761</v>
+      </c>
+      <c r="I76">
+        <v>0.3256465792904883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77">
+        <v>-0.3635999161506279</v>
+      </c>
+      <c r="E77">
+        <v>0.1150576148938663</v>
+      </c>
+      <c r="F77">
+        <v>0.447857276191671</v>
+      </c>
+      <c r="G77">
+        <v>0.04767803721914058</v>
+      </c>
+      <c r="H77">
+        <v>-0.1168791685842856</v>
+      </c>
+      <c r="I77">
+        <v>0.6236167958643259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78">
+        <v>0.09789862445435893</v>
+      </c>
+      <c r="E78">
+        <v>0.6813555635636203</v>
+      </c>
+      <c r="F78">
+        <v>-0.09023935210968904</v>
+      </c>
+      <c r="G78">
+        <v>0.705169913568786</v>
+      </c>
+      <c r="H78">
+        <v>0.4820271909755587</v>
+      </c>
+      <c r="I78">
+        <v>0.03137786827556275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80">
+        <v>-0.1459299845615355</v>
+      </c>
+      <c r="E80">
+        <v>0.5392829000652875</v>
+      </c>
+      <c r="F80">
+        <v>-0.1838693180859512</v>
+      </c>
+      <c r="G80">
+        <v>0.4377529982398593</v>
+      </c>
+      <c r="H80">
+        <v>-0.3648670913061605</v>
+      </c>
+      <c r="I80">
+        <v>0.1137028136449972</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82">
+        <v>0.4889443476090304</v>
+      </c>
+      <c r="E82">
+        <v>0.02868842515098248</v>
+      </c>
+      <c r="F82">
+        <v>-0.3764534371981246</v>
+      </c>
+      <c r="G82">
+        <v>0.1018432355880066</v>
+      </c>
+      <c r="H82">
+        <v>0.1811898461655626</v>
+      </c>
+      <c r="I82">
+        <v>0.4445743133293877</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83">
+        <v>0.2493140322745746</v>
+      </c>
+      <c r="E83">
+        <v>0.2891316046781642</v>
+      </c>
+      <c r="F83">
+        <v>-0.3373889313632846</v>
+      </c>
+      <c r="G83">
+        <v>0.1457375170098976</v>
+      </c>
+      <c r="H83">
+        <v>-0.2525768932690629</v>
+      </c>
+      <c r="I83">
+        <v>0.2826577873993354</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85">
+        <v>0.06586504421289884</v>
+      </c>
+      <c r="E85">
+        <v>0.7826322539939272</v>
+      </c>
+      <c r="F85">
+        <v>-0.01889194856285541</v>
+      </c>
+      <c r="G85">
+        <v>0.9369897698282365</v>
+      </c>
+      <c r="H85">
+        <v>0.01518482462474733</v>
+      </c>
+      <c r="I85">
+        <v>0.9493370671093254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86">
+        <v>-0.1997232847586852</v>
+      </c>
+      <c r="E86">
+        <v>0.3985397104173667</v>
+      </c>
+      <c r="F86">
+        <v>0.117458949439994</v>
+      </c>
+      <c r="G86">
+        <v>0.6218838584163083</v>
+      </c>
+      <c r="H86">
+        <v>-0.09866894151357161</v>
+      </c>
+      <c r="I86">
+        <v>0.6789760262788451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87">
+        <v>-0.1846004992310367</v>
+      </c>
+      <c r="E87">
+        <v>0.4359011890013595</v>
+      </c>
+      <c r="F87">
+        <v>0.05907408932695135</v>
+      </c>
+      <c r="G87">
+        <v>0.8046048160802322</v>
+      </c>
+      <c r="H87">
+        <v>-0.01131888772947632</v>
+      </c>
+      <c r="I87">
+        <v>0.9622251342520005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88">
+        <v>-0.7114719738729789</v>
+      </c>
+      <c r="E88">
+        <v>0.0004354061530708079</v>
+      </c>
+      <c r="F88">
+        <v>0.3464091845128053</v>
+      </c>
+      <c r="G88">
+        <v>0.1345974474234644</v>
+      </c>
+      <c r="H88">
+        <v>-0.04080549787090581</v>
+      </c>
+      <c r="I88">
+        <v>0.8643748250274023</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89">
+        <v>-0.5080648562587251</v>
+      </c>
+      <c r="E89">
+        <v>0.02218775561649883</v>
+      </c>
+      <c r="F89">
+        <v>-0.02882199178019794</v>
+      </c>
+      <c r="G89">
+        <v>0.903991411898878</v>
+      </c>
+      <c r="H89">
+        <v>-0.08136016998792742</v>
+      </c>
+      <c r="I89">
+        <v>0.7331100467170358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90">
+        <v>-0.08346832533794536</v>
+      </c>
+      <c r="E90">
+        <v>0.7264455053104906</v>
+      </c>
+      <c r="F90">
+        <v>0.1286387139853815</v>
+      </c>
+      <c r="G90">
+        <v>0.5888511813851195</v>
+      </c>
+      <c r="H90">
+        <v>0.0984464599711367</v>
+      </c>
+      <c r="I90">
+        <v>0.6796629807561904</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91">
+        <v>0.2879321999714802</v>
+      </c>
+      <c r="E91">
+        <v>0.2183091337790686</v>
+      </c>
+      <c r="F91">
+        <v>-0.3125389618037026</v>
+      </c>
+      <c r="G91">
+        <v>0.1797197612042206</v>
+      </c>
+      <c r="H91">
+        <v>-0.04181499504064709</v>
+      </c>
+      <c r="I91">
+        <v>0.8610503875085638</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92">
+        <v>-0.1114247836783667</v>
+      </c>
+      <c r="E92">
+        <v>0.6400119479774825</v>
+      </c>
+      <c r="F92">
+        <v>0.1213216284254656</v>
+      </c>
+      <c r="G92">
+        <v>0.6103877009945987</v>
+      </c>
+      <c r="H92">
+        <v>-0.2215269270050133</v>
+      </c>
+      <c r="I92">
+        <v>0.3479141267669783</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93">
+        <v>-0.324447197005531</v>
+      </c>
+      <c r="E93">
+        <v>0.162822883619658</v>
+      </c>
+      <c r="F93">
+        <v>0.1803917955372557</v>
+      </c>
+      <c r="G93">
+        <v>0.4466166160098324</v>
+      </c>
+      <c r="H93">
+        <v>-0.1828353028043875</v>
+      </c>
+      <c r="I93">
+        <v>0.4403788169384056</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96">
+        <v>-0.1489354531760391</v>
+      </c>
+      <c r="E96">
+        <v>0.5308669136924012</v>
+      </c>
+      <c r="F96">
+        <v>0.08729232919579481</v>
+      </c>
+      <c r="G96">
+        <v>0.7144050778412815</v>
+      </c>
+      <c r="H96">
+        <v>-0.2381642011980546</v>
+      </c>
+      <c r="I96">
+        <v>0.3119360148525809</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97">
+        <v>-0.6478176842071022</v>
+      </c>
+      <c r="E97">
+        <v>0.002011675805118241</v>
+      </c>
+      <c r="F97">
+        <v>0.2462199417753178</v>
+      </c>
+      <c r="G97">
+        <v>0.2953541396045953</v>
+      </c>
+      <c r="H97">
+        <v>-0.1107030386529951</v>
+      </c>
+      <c r="I97">
+        <v>0.6421937123486985</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100">
+        <v>0.197177552261848</v>
+      </c>
+      <c r="E100">
+        <v>0.4047022990242626</v>
+      </c>
+      <c r="F100">
+        <v>-0.1440869308504229</v>
+      </c>
+      <c r="G100">
+        <v>0.5444738750166618</v>
+      </c>
+      <c r="H100">
+        <v>0.06206526284730381</v>
+      </c>
+      <c r="I100">
+        <v>0.7949082732242072</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102">
+        <v>0.590772362557317</v>
+      </c>
+      <c r="E102">
+        <v>0.006092203791500078</v>
+      </c>
+      <c r="F102">
+        <v>-0.4538241429984923</v>
+      </c>
+      <c r="G102">
+        <v>0.04444305650424778</v>
+      </c>
+      <c r="H102">
+        <v>-0.07328924051961155</v>
+      </c>
+      <c r="I102">
+        <v>0.7587913941304769</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104">
+        <v>-0.3394562231400322</v>
+      </c>
+      <c r="E104">
+        <v>0.1431293110292705</v>
+      </c>
+      <c r="F104">
+        <v>0.1457743364338812</v>
+      </c>
+      <c r="G104">
+        <v>0.5397204065662946</v>
+      </c>
+      <c r="H104">
+        <v>-0.3691438609762676</v>
+      </c>
+      <c r="I104">
+        <v>0.1092150262585688</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" t="s">
+        <v>153</v>
+      </c>
+      <c r="D105">
+        <v>-0.4043093336169986</v>
+      </c>
+      <c r="E105">
+        <v>0.07704597628662485</v>
+      </c>
+      <c r="F105">
+        <v>0.1127790229099538</v>
+      </c>
+      <c r="G105">
+        <v>0.6359258934387094</v>
+      </c>
+      <c r="H105">
+        <v>0.1041099324854575</v>
+      </c>
+      <c r="I105">
+        <v>0.6622528967822728</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110">
+        <v>-0.3104852844096477</v>
+      </c>
+      <c r="E110">
+        <v>0.1827496681975921</v>
+      </c>
+      <c r="F110">
+        <v>-0.09139828922017081</v>
+      </c>
+      <c r="G110">
+        <v>0.7015488884564254</v>
+      </c>
+      <c r="H110">
+        <v>-0.1975477192194655</v>
+      </c>
+      <c r="I110">
+        <v>0.40380299659356</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" t="s">
+        <v>187</v>
+      </c>
+      <c r="D111">
+        <v>0.2814420445219598</v>
+      </c>
+      <c r="E111">
+        <v>0.2293284099352936</v>
+      </c>
+      <c r="F111">
+        <v>-0.2201855292975782</v>
+      </c>
+      <c r="G111">
+        <v>0.3509157899274201</v>
+      </c>
+      <c r="H111">
+        <v>-0.01111528871083508</v>
+      </c>
+      <c r="I111">
+        <v>0.9629041596588175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" t="s">
+        <v>165</v>
+      </c>
+      <c r="D112">
+        <v>0.1381181262185136</v>
+      </c>
+      <c r="E112">
+        <v>0.5614389313368708</v>
+      </c>
+      <c r="F112">
+        <v>0.1713691647070933</v>
+      </c>
+      <c r="G112">
+        <v>0.4700424104617805</v>
+      </c>
+      <c r="H112">
+        <v>0.3827361065311715</v>
+      </c>
+      <c r="I112">
+        <v>0.09580200006091044</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>189</v>
+      </c>
+      <c r="D117">
+        <v>-0.4765326552093262</v>
+      </c>
+      <c r="E117">
+        <v>0.0336516671837489</v>
+      </c>
+      <c r="F117">
+        <v>0.171250556022531</v>
+      </c>
+      <c r="G117">
+        <v>0.4703544256891374</v>
+      </c>
+      <c r="H117">
+        <v>-0.450772549365028</v>
+      </c>
+      <c r="I117">
+        <v>0.04607566560703406</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" t="s">
+        <v>190</v>
+      </c>
+      <c r="D118">
+        <v>-0.4577290355244459</v>
+      </c>
+      <c r="E118">
+        <v>0.04241935193470781</v>
+      </c>
+      <c r="F118">
+        <v>0.4540394605190843</v>
+      </c>
+      <c r="G118">
+        <v>0.0443295673604233</v>
+      </c>
+      <c r="H118">
+        <v>0.2757344976846625</v>
+      </c>
+      <c r="I118">
+        <v>0.2393125384462055</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" t="s">
+        <v>191</v>
+      </c>
+      <c r="D120">
+        <v>-0.04700494365976675</v>
+      </c>
+      <c r="E120">
+        <v>0.8439956927938598</v>
+      </c>
+      <c r="F120">
+        <v>-0.3012944988907942</v>
+      </c>
+      <c r="G120">
+        <v>0.1967323866614686</v>
+      </c>
+      <c r="H120">
+        <v>-0.2187271698693329</v>
+      </c>
+      <c r="I120">
+        <v>0.3541961352090062</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121">
+        <v>-0.2513658748695813</v>
+      </c>
+      <c r="E121">
+        <v>0.2850499966924889</v>
+      </c>
+      <c r="F121">
+        <v>0.1932425120462926</v>
+      </c>
+      <c r="G121">
+        <v>0.4143296966140183</v>
+      </c>
+      <c r="H121">
+        <v>-0.06207316110392656</v>
+      </c>
+      <c r="I121">
+        <v>0.7948827069366606</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" t="s">
+        <v>155</v>
+      </c>
+      <c r="D122">
+        <v>-0.1179461248293005</v>
+      </c>
+      <c r="E122">
+        <v>0.6204291935167587</v>
+      </c>
+      <c r="F122">
+        <v>0.2782113332148081</v>
+      </c>
+      <c r="G122">
+        <v>0.234946022620343</v>
+      </c>
+      <c r="H122">
+        <v>0.2609869208704845</v>
+      </c>
+      <c r="I122">
+        <v>0.2663890350117409</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" t="s">
+        <v>156</v>
+      </c>
+      <c r="D123">
+        <v>-0.143668331450761</v>
+      </c>
+      <c r="E123">
+        <v>0.5456560163342832</v>
+      </c>
+      <c r="F123">
+        <v>0.4281240469740983</v>
+      </c>
+      <c r="G123">
+        <v>0.05967486355510757</v>
+      </c>
+      <c r="H123">
+        <v>0.1494465049157546</v>
+      </c>
+      <c r="I123">
+        <v>0.5294419404496867</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" t="s">
+        <v>192</v>
+      </c>
+      <c r="D124">
+        <v>-0.6546305626271288</v>
+      </c>
+      <c r="E124">
+        <v>0.001736306790705087</v>
+      </c>
+      <c r="F124">
+        <v>0.470693716598204</v>
+      </c>
+      <c r="G124">
+        <v>0.0362068868564052</v>
+      </c>
+      <c r="H124">
+        <v>-0.3129238224644036</v>
+      </c>
+      <c r="I124">
+        <v>0.1791557728860571</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" t="s">
+        <v>193</v>
+      </c>
+      <c r="D125">
+        <v>-0.3204705427981417</v>
+      </c>
+      <c r="E125">
+        <v>0.1683387185613477</v>
+      </c>
+      <c r="F125">
+        <v>0.1494984875454058</v>
+      </c>
+      <c r="G125">
+        <v>0.5292970961683988</v>
+      </c>
+      <c r="H125">
+        <v>-0.3032404145658246</v>
+      </c>
+      <c r="I125">
+        <v>0.1937139269383018</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" t="s">
+        <v>182</v>
+      </c>
+      <c r="D126">
+        <v>-0.5062731715697264</v>
+      </c>
+      <c r="E126">
+        <v>0.02274199021734897</v>
+      </c>
+      <c r="F126">
+        <v>0.2122999985863219</v>
+      </c>
+      <c r="G126">
+        <v>0.3688625977619635</v>
+      </c>
+      <c r="H126">
+        <v>-0.1007109163939688</v>
+      </c>
+      <c r="I126">
+        <v>0.6726824756062231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" t="s">
+        <v>194</v>
+      </c>
+      <c r="D127">
+        <v>0.1838179107536593</v>
+      </c>
+      <c r="E127">
+        <v>0.4378833492362273</v>
+      </c>
+      <c r="F127">
+        <v>-0.5536814763750402</v>
+      </c>
+      <c r="G127">
+        <v>0.01131706030050307</v>
+      </c>
+      <c r="H127">
+        <v>0.1756958124286991</v>
+      </c>
+      <c r="I127">
+        <v>0.4587323964900151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" t="s">
+        <v>190</v>
+      </c>
+      <c r="D128">
+        <v>-0.1415048458627728</v>
+      </c>
+      <c r="E128">
+        <v>0.5517842556714184</v>
+      </c>
+      <c r="F128">
+        <v>-0.03272769200249952</v>
+      </c>
+      <c r="G128">
+        <v>0.891050943635726</v>
+      </c>
+      <c r="H128">
+        <v>0.3772953888071289</v>
+      </c>
+      <c r="I128">
+        <v>0.1010179689343857</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129">
+        <v>0.6084967579787179</v>
+      </c>
+      <c r="E129">
+        <v>0.004413743613657774</v>
+      </c>
+      <c r="F129">
+        <v>-0.7762942349399469</v>
+      </c>
+      <c r="G129">
+        <v>5.722574596077989E-05</v>
+      </c>
+      <c r="H129">
+        <v>0.07892511007061698</v>
+      </c>
+      <c r="I129">
+        <v>0.740830955201859</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131" t="s">
+        <v>165</v>
+      </c>
+      <c r="D131">
+        <v>-0.03903343351286682</v>
+      </c>
+      <c r="E131">
+        <v>0.8702157968920294</v>
+      </c>
+      <c r="F131">
+        <v>0.3234070514718966</v>
+      </c>
+      <c r="G131">
+        <v>0.1642534321924716</v>
+      </c>
+      <c r="H131">
+        <v>0.2111533369431419</v>
+      </c>
+      <c r="I131">
+        <v>0.3715149713153973</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" t="s">
+        <v>180</v>
+      </c>
+      <c r="D133">
+        <v>-0.7454047509638834</v>
+      </c>
+      <c r="E133">
+        <v>0.0001620223583283745</v>
+      </c>
+      <c r="F133">
+        <v>0.3317887266651302</v>
+      </c>
+      <c r="G133">
+        <v>0.1529695407473144</v>
+      </c>
+      <c r="H133">
+        <v>-0.1096641553665245</v>
+      </c>
+      <c r="I133">
+        <v>0.6453391113490644</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>140</v>
+      </c>
+      <c r="C134" t="s">
+        <v>196</v>
+      </c>
+      <c r="D134">
+        <v>0.3599135437542028</v>
+      </c>
+      <c r="E134">
+        <v>0.1190647866153647</v>
+      </c>
+      <c r="F134">
+        <v>-0.04018586006871514</v>
+      </c>
+      <c r="G134">
+        <v>0.8664164833371039</v>
+      </c>
+      <c r="H134">
+        <v>-0.09981410602860991</v>
+      </c>
+      <c r="I134">
+        <v>0.6754439753744154</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
+        <v>156</v>
+      </c>
+      <c r="D135">
+        <v>-0.09580965681380839</v>
+      </c>
+      <c r="E135">
+        <v>0.6878230025102229</v>
+      </c>
+      <c r="F135">
+        <v>-0.1556355910697357</v>
+      </c>
+      <c r="G135">
+        <v>0.5123273273299528</v>
+      </c>
+      <c r="H135">
+        <v>0.2037522906695642</v>
+      </c>
+      <c r="I135">
+        <v>0.3888928551418092</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" t="s">
+        <v>183</v>
+      </c>
+      <c r="D136">
+        <v>-0.2919781401870706</v>
+      </c>
+      <c r="E136">
+        <v>0.211618741693146</v>
+      </c>
+      <c r="F136">
+        <v>0.4091878641646949</v>
+      </c>
+      <c r="G136">
+        <v>0.07321337769247885</v>
+      </c>
+      <c r="H136">
+        <v>-0.3407048106709021</v>
+      </c>
+      <c r="I136">
+        <v>0.1415699678544692</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" t="s">
+        <v>175</v>
+      </c>
+      <c r="D137">
+        <v>0.1155071422758934</v>
+      </c>
+      <c r="E137">
+        <v>0.6277252955238573</v>
+      </c>
+      <c r="F137">
+        <v>-0.2169399961017346</v>
+      </c>
+      <c r="G137">
+        <v>0.3582401330465781</v>
+      </c>
+      <c r="H137">
+        <v>0.2791983228878497</v>
+      </c>
+      <c r="I137">
+        <v>0.2332204754238921</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" t="s">
+        <v>154</v>
+      </c>
+      <c r="D140">
+        <v>0.3298544335075241</v>
+      </c>
+      <c r="E140">
+        <v>0.1555243871963591</v>
+      </c>
+      <c r="F140">
+        <v>-0.5061935527336533</v>
+      </c>
+      <c r="G140">
+        <v>0.02276687165186277</v>
+      </c>
+      <c r="H140">
+        <v>0.08394010326360149</v>
+      </c>
+      <c r="I140">
+        <v>0.7249566355588751</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141" t="s">
+        <v>156</v>
+      </c>
+      <c r="D141">
+        <v>-0.3443686896444824</v>
+      </c>
+      <c r="E141">
+        <v>0.1370631109681691</v>
+      </c>
+      <c r="F141">
+        <v>0.08662202441876347</v>
+      </c>
+      <c r="G141">
+        <v>0.7165110294479196</v>
+      </c>
+      <c r="H141">
+        <v>-0.08035555409348974</v>
+      </c>
+      <c r="I141">
+        <v>0.7362924661436213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143">
+        <v>0.1511164275681722</v>
+      </c>
+      <c r="E143">
+        <v>0.5247981026559236</v>
+      </c>
+      <c r="F143">
+        <v>-0.1539445597916606</v>
+      </c>
+      <c r="G143">
+        <v>0.5169771850842377</v>
+      </c>
+      <c r="H143">
+        <v>0.3582836032418591</v>
+      </c>
+      <c r="I143">
+        <v>0.1208680443267951</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>150</v>
+      </c>
+      <c r="C144" t="s">
+        <v>166</v>
+      </c>
+      <c r="D144">
+        <v>-0.05727083512945519</v>
+      </c>
+      <c r="E144">
+        <v>0.8104638539893119</v>
+      </c>
+      <c r="F144">
+        <v>0.1657759268561484</v>
+      </c>
+      <c r="G144">
+        <v>0.4848691493648172</v>
+      </c>
+      <c r="H144">
+        <v>-0.253438444716472</v>
+      </c>
+      <c r="I144">
+        <v>0.2809634974981747</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>151</v>
+      </c>
+      <c r="C145" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
